--- a/data/trans_dic/P14B35-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P14B35-Dificultad-trans_dic.xlsx
@@ -613,13 +613,13 @@
       </c>
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="n">
-        <v>0.01511933903966559</v>
+        <v>0.0148756295208918</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.002382354636743389</v>
+        <v>0.002252263440683569</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02534180922667671</v>
+        <v>0.02424906188296861</v>
       </c>
     </row>
     <row r="6">
@@ -631,13 +631,13 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.03404684193397507</v>
+        <v>0.03366925481484016</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01169859628656732</v>
+        <v>0.01065467697340752</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05580071682339733</v>
+        <v>0.05483007361873679</v>
       </c>
     </row>
     <row r="7">
@@ -661,7 +661,7 @@
         <v>0.006675255368383871</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.01743497601775333</v>
+        <v>0.01743497601775332</v>
       </c>
     </row>
     <row r="8">
@@ -673,13 +673,13 @@
       </c>
       <c r="C8" s="5" t="inlineStr"/>
       <c r="D8" s="5" t="n">
-        <v>0.004515544832628632</v>
+        <v>0.004488661712086829</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.002915087259358385</v>
+        <v>0.0028248819012933</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01010539608635339</v>
+        <v>0.0106310642747106</v>
       </c>
     </row>
     <row r="9">
@@ -691,13 +691,13 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.01470933816635592</v>
+        <v>0.01527403645511704</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01356876058023868</v>
+        <v>0.01428654603382227</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02778283992006357</v>
+        <v>0.02753936017998734</v>
       </c>
     </row>
     <row r="10">
@@ -733,13 +733,13 @@
       </c>
       <c r="C11" s="5" t="inlineStr"/>
       <c r="D11" s="5" t="n">
-        <v>0.003248051293125512</v>
+        <v>0.00333267001518557</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.001194155913970592</v>
+        <v>0.001190104220432039</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01625073658247589</v>
+        <v>0.01648124710986498</v>
       </c>
     </row>
     <row r="12">
@@ -751,13 +751,13 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.01461009093818995</v>
+        <v>0.01483341093760131</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01075258746992612</v>
+        <v>0.01118316636307849</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03875310986791387</v>
+        <v>0.04015234657771559</v>
       </c>
     </row>
     <row r="13">
@@ -781,7 +781,7 @@
         <v>0.001920798070572061</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.05414458739645741</v>
+        <v>0.0541445873964574</v>
       </c>
     </row>
     <row r="14">
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03958972316488861</v>
+        <v>0.03983532823579369</v>
       </c>
     </row>
     <row r="15">
@@ -811,13 +811,13 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.01558793345250201</v>
+        <v>0.01610298270673557</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01116476666070686</v>
+        <v>0.007805116302109541</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07356439157576485</v>
+        <v>0.07228387324978865</v>
       </c>
     </row>
     <row r="16">
@@ -841,7 +841,7 @@
         <v>0.004932658936860385</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.03193243650209268</v>
+        <v>0.0319324365020927</v>
       </c>
     </row>
     <row r="17">
@@ -853,13 +853,13 @@
       </c>
       <c r="C17" s="5" t="inlineStr"/>
       <c r="D17" s="5" t="n">
-        <v>0.009285825369623099</v>
+        <v>0.009029289275804118</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.002991881792571794</v>
+        <v>0.003056113590209491</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02634302641861817</v>
+        <v>0.02598373309153187</v>
       </c>
     </row>
     <row r="18">
@@ -871,13 +871,13 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.01642018849767004</v>
+        <v>0.01642729705374679</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.007678637478182878</v>
+        <v>0.007749680223154335</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0381471941395528</v>
+        <v>0.03864436886929074</v>
       </c>
     </row>
     <row r="19">
@@ -1027,13 +1027,13 @@
       </c>
       <c r="C6" s="6" t="inlineStr"/>
       <c r="D6" s="6" t="n">
-        <v>16913</v>
+        <v>16641</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3001</v>
+        <v>2837</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>15783</v>
+        <v>15103</v>
       </c>
     </row>
     <row r="7">
@@ -1045,13 +1045,13 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>38087</v>
+        <v>37664</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>14735</v>
+        <v>13420</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>34754</v>
+        <v>34149</v>
       </c>
     </row>
     <row r="8">
@@ -1107,13 +1107,13 @@
       </c>
       <c r="C10" s="6" t="inlineStr"/>
       <c r="D10" s="6" t="n">
-        <v>4928</v>
+        <v>4899</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2934</v>
+        <v>2843</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>11221</v>
+        <v>11804</v>
       </c>
     </row>
     <row r="11">
@@ -1125,13 +1125,13 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>16053</v>
+        <v>16669</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>13657</v>
+        <v>14379</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>30849</v>
+        <v>30578</v>
       </c>
     </row>
     <row r="12">
@@ -1187,13 +1187,13 @@
       </c>
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="n">
-        <v>2845</v>
+        <v>2919</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>17001</v>
+        <v>17242</v>
       </c>
     </row>
     <row r="15">
@@ -1205,13 +1205,13 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>12795</v>
+        <v>12991</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>8291</v>
+        <v>8623</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>40542</v>
+        <v>42006</v>
       </c>
     </row>
     <row r="16">
@@ -1273,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>35839</v>
+        <v>36062</v>
       </c>
     </row>
     <row r="19">
@@ -1285,13 +1285,13 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>7057</v>
+        <v>7290</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>5467</v>
+        <v>3822</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>66596</v>
+        <v>65436</v>
       </c>
     </row>
     <row r="20">
@@ -1347,13 +1347,13 @@
       </c>
       <c r="C22" s="6" t="inlineStr"/>
       <c r="D22" s="6" t="n">
-        <v>32858</v>
+        <v>31950</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>10552</v>
+        <v>10778</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>97064</v>
+        <v>95740</v>
       </c>
     </row>
     <row r="23">
@@ -1365,13 +1365,13 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>58103</v>
+        <v>58128</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>27081</v>
+        <v>27332</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>140557</v>
+        <v>142389</v>
       </c>
     </row>
     <row r="24">
